--- a/r4-core-master/StructureDefinition-austrian-patient.xlsx
+++ b/r4-core-master/StructureDefinition-austrian-patient.xlsx
@@ -655,10 +655,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Patient Religion</t>
+  </si>
+  <si>
+    <t>The Religion (registered in Austria) of a Patient</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -5938,7 +5938,7 @@
         <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>

--- a/r4-core-master/StructureDefinition-austrian-patient.xlsx
+++ b/r4-core-master/StructureDefinition-austrian-patient.xlsx
@@ -434,7 +434,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://termpub.gesundheit.gv.at:443/TermBrowser/gui/main/main.zul?loadType=ValueSet&amp;loadName=ELGA_Laendercodes</t>
+    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/ValueSet/VS-ELGA-Laendercodes</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -1845,7 +1845,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="115.671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.3359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
